--- a/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1224</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>486</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>1224</v>
@@ -492,249 +492,281 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>720</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1008</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>936</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>882</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>420</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>696</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>156</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>474</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>228</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>876</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45404</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>780</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45411</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45418</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>408</v>
+        <v>876</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45432</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45439</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>708</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>3348</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45460</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>504</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45467</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45474</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>348</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45481</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>408</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45502</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>2520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45523</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2016</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45544</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>876</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45551</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1848</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45565</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45572</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45579</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>876</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45586</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1428</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45593</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1080</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45614</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B41" t="n">
         <v>876</v>
       </c>
     </row>
@@ -749,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,89 +803,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3096</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3546</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1746</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1896</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1476</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4440</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1044</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4248</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2724</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2556</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>876</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,175 +556,175 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>420</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>696</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>156</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>474</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>228</v>
+        <v>876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>876</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>780</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>408</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>708</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>3348</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>504</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>588</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>348</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>408</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>2520</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>2016</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>876</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1848</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>12</v>
@@ -732,41 +732,33 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>1428</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45620.99999999999</v>
-      </c>
-      <c r="B41" t="n">
         <v>876</v>
       </c>
     </row>
@@ -838,7 +830,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1746</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="7">

--- a/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -789,7 +790,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -895,6 +896,705 @@
       </c>
       <c r="B14" t="n">
         <v>876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>387</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-500.5026098737151</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1239.282428803995</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>400</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-557.2002479944309</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1237.624755297643</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>427</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-471.6440586408746</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1270.24434384777</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>440</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-375.7989253505222</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1303.471919743216</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>479</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-407.9036826363477</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1411.905712508739</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>492</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-330.5786163673868</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1424.474897071015</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>506</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-404.7015985903642</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1394.863977295038</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>519</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-328.6306812883897</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1459.627891359189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>532</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-341.3395572138847</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1439.32499523211</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>545</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-369.9401990944316</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1408.73490488371</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>558</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-326.9983743275707</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1447.85915075067</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>571</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-379.4857761904381</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1403.510525024212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>585</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-319.680470810392</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1455.66345916463</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>611</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-290.8691800108464</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1473.342204878539</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>624</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-260.9315583621005</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1508.970792518178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>637</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-279.8207052325578</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1527.261228117488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>650</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-270.9407193001948</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1565.092142511081</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>664</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-213.9994309215312</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1510.175274285855</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>677</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-194.2269456018034</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1587.532561529947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>690</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-165.3160398198987</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1582.08392062195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>703</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-216.5142408286855</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1577.106733107938</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>716</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-131.2099173958073</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1563.949207558399</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>743</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-111.6254775924856</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1581.223081037909</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>756</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-103.2497400591338</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1625.102153217308</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>782</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-110.0596987650745</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1702.523268687125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>795</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-115.5639702080831</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1699.903712496686</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>808</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-91.35347417998462</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1706.636747947174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>821</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-95.41441774546628</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1693.994378058694</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>835</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-25.20227891059661</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1725.063198668305</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>874</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-28.71299767614274</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1751.204165210429</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>914</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7086782529100857</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1831.141176941469</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>953</v>
+      </c>
+      <c r="C33" t="n">
+        <v>84.28853452290841</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1845.804972597981</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>966</v>
+      </c>
+      <c r="C34" t="n">
+        <v>110.7073745482578</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1794.32451085003</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>993</v>
+      </c>
+      <c r="C35" t="n">
+        <v>85.64902140291684</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1877.88872482388</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C36" t="n">
+        <v>155.9597905173737</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1930.711849745087</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C37" t="n">
+        <v>87.01921637679651</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1919.531609941786</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C38" t="n">
+        <v>192.0061666987449</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1974.746961991479</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C39" t="n">
+        <v>101.8450631541447</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1939.021239326717</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C40" t="n">
+        <v>197.8268139584969</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1981.222432550885</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C41" t="n">
+        <v>224.5935073215157</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1967.351482699546</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C42" t="n">
+        <v>214.9211588938277</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1994.298043053034</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C43" t="n">
+        <v>254.5513916249247</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2022.249545332515</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C44" t="n">
+        <v>241.1089963303712</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2008.717029683696</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C45" t="n">
+        <v>263.6489984481734</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2037.957188555484</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1164</v>
+      </c>
+      <c r="C46" t="n">
+        <v>295.1424553250141</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2053.397762616099</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C47" t="n">
+        <v>314.3700880665366</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2074.738923087642</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C48" t="n">
+        <v>295.9272160100623</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2072.927218528439</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMJSH15D_po_data.xlsx
@@ -909,7 +909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,16 +928,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -946,12 +936,6 @@
       <c r="B2" t="n">
         <v>387</v>
       </c>
-      <c r="C2" t="n">
-        <v>-500.5026098737151</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1239.282428803995</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -960,12 +944,6 @@
       <c r="B3" t="n">
         <v>400</v>
       </c>
-      <c r="C3" t="n">
-        <v>-557.2002479944309</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1237.624755297643</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -974,12 +952,6 @@
       <c r="B4" t="n">
         <v>427</v>
       </c>
-      <c r="C4" t="n">
-        <v>-471.6440586408746</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1270.24434384777</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -988,12 +960,6 @@
       <c r="B5" t="n">
         <v>440</v>
       </c>
-      <c r="C5" t="n">
-        <v>-375.7989253505222</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1303.471919743216</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1002,12 +968,6 @@
       <c r="B6" t="n">
         <v>479</v>
       </c>
-      <c r="C6" t="n">
-        <v>-407.9036826363477</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1411.905712508739</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1016,12 +976,6 @@
       <c r="B7" t="n">
         <v>492</v>
       </c>
-      <c r="C7" t="n">
-        <v>-330.5786163673868</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1424.474897071015</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1030,12 +984,6 @@
       <c r="B8" t="n">
         <v>506</v>
       </c>
-      <c r="C8" t="n">
-        <v>-404.7015985903642</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1394.863977295038</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1044,12 +992,6 @@
       <c r="B9" t="n">
         <v>519</v>
       </c>
-      <c r="C9" t="n">
-        <v>-328.6306812883897</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1459.627891359189</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1058,12 +1000,6 @@
       <c r="B10" t="n">
         <v>532</v>
       </c>
-      <c r="C10" t="n">
-        <v>-341.3395572138847</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1439.32499523211</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1072,12 +1008,6 @@
       <c r="B11" t="n">
         <v>545</v>
       </c>
-      <c r="C11" t="n">
-        <v>-369.9401990944316</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1408.73490488371</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1086,12 +1016,6 @@
       <c r="B12" t="n">
         <v>558</v>
       </c>
-      <c r="C12" t="n">
-        <v>-326.9983743275707</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1447.85915075067</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1100,12 +1024,6 @@
       <c r="B13" t="n">
         <v>571</v>
       </c>
-      <c r="C13" t="n">
-        <v>-379.4857761904381</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1403.510525024212</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1114,12 +1032,6 @@
       <c r="B14" t="n">
         <v>585</v>
       </c>
-      <c r="C14" t="n">
-        <v>-319.680470810392</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1455.66345916463</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1128,12 +1040,6 @@
       <c r="B15" t="n">
         <v>611</v>
       </c>
-      <c r="C15" t="n">
-        <v>-290.8691800108464</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1473.342204878539</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1142,12 +1048,6 @@
       <c r="B16" t="n">
         <v>624</v>
       </c>
-      <c r="C16" t="n">
-        <v>-260.9315583621005</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1508.970792518178</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1156,12 +1056,6 @@
       <c r="B17" t="n">
         <v>637</v>
       </c>
-      <c r="C17" t="n">
-        <v>-279.8207052325578</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1527.261228117488</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1170,12 +1064,6 @@
       <c r="B18" t="n">
         <v>650</v>
       </c>
-      <c r="C18" t="n">
-        <v>-270.9407193001948</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1565.092142511081</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1184,12 +1072,6 @@
       <c r="B19" t="n">
         <v>664</v>
       </c>
-      <c r="C19" t="n">
-        <v>-213.9994309215312</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1510.175274285855</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1198,12 +1080,6 @@
       <c r="B20" t="n">
         <v>677</v>
       </c>
-      <c r="C20" t="n">
-        <v>-194.2269456018034</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1587.532561529947</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1212,12 +1088,6 @@
       <c r="B21" t="n">
         <v>690</v>
       </c>
-      <c r="C21" t="n">
-        <v>-165.3160398198987</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1582.08392062195</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1226,12 +1096,6 @@
       <c r="B22" t="n">
         <v>703</v>
       </c>
-      <c r="C22" t="n">
-        <v>-216.5142408286855</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1577.106733107938</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1240,12 +1104,6 @@
       <c r="B23" t="n">
         <v>716</v>
       </c>
-      <c r="C23" t="n">
-        <v>-131.2099173958073</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1563.949207558399</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1254,12 +1112,6 @@
       <c r="B24" t="n">
         <v>743</v>
       </c>
-      <c r="C24" t="n">
-        <v>-111.6254775924856</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1581.223081037909</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1268,12 +1120,6 @@
       <c r="B25" t="n">
         <v>756</v>
       </c>
-      <c r="C25" t="n">
-        <v>-103.2497400591338</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1625.102153217308</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1282,12 +1128,6 @@
       <c r="B26" t="n">
         <v>782</v>
       </c>
-      <c r="C26" t="n">
-        <v>-110.0596987650745</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1702.523268687125</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1296,12 +1136,6 @@
       <c r="B27" t="n">
         <v>795</v>
       </c>
-      <c r="C27" t="n">
-        <v>-115.5639702080831</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1699.903712496686</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1310,12 +1144,6 @@
       <c r="B28" t="n">
         <v>808</v>
       </c>
-      <c r="C28" t="n">
-        <v>-91.35347417998462</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1706.636747947174</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1324,12 +1152,6 @@
       <c r="B29" t="n">
         <v>821</v>
       </c>
-      <c r="C29" t="n">
-        <v>-95.41441774546628</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1693.994378058694</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1338,12 +1160,6 @@
       <c r="B30" t="n">
         <v>835</v>
       </c>
-      <c r="C30" t="n">
-        <v>-25.20227891059661</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1725.063198668305</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1352,12 +1168,6 @@
       <c r="B31" t="n">
         <v>874</v>
       </c>
-      <c r="C31" t="n">
-        <v>-28.71299767614274</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1751.204165210429</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1366,12 +1176,6 @@
       <c r="B32" t="n">
         <v>914</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.7086782529100857</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1831.141176941469</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1380,12 +1184,6 @@
       <c r="B33" t="n">
         <v>953</v>
       </c>
-      <c r="C33" t="n">
-        <v>84.28853452290841</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1845.804972597981</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1394,12 +1192,6 @@
       <c r="B34" t="n">
         <v>966</v>
       </c>
-      <c r="C34" t="n">
-        <v>110.7073745482578</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1794.32451085003</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1408,12 +1200,6 @@
       <c r="B35" t="n">
         <v>993</v>
       </c>
-      <c r="C35" t="n">
-        <v>85.64902140291684</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1877.88872482388</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1422,12 +1208,6 @@
       <c r="B36" t="n">
         <v>1006</v>
       </c>
-      <c r="C36" t="n">
-        <v>155.9597905173737</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1930.711849745087</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1436,12 +1216,6 @@
       <c r="B37" t="n">
         <v>1019</v>
       </c>
-      <c r="C37" t="n">
-        <v>87.01921637679651</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1919.531609941786</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1450,12 +1224,6 @@
       <c r="B38" t="n">
         <v>1032</v>
       </c>
-      <c r="C38" t="n">
-        <v>192.0061666987449</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1974.746961991479</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1464,12 +1232,6 @@
       <c r="B39" t="n">
         <v>1045</v>
       </c>
-      <c r="C39" t="n">
-        <v>101.8450631541447</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1939.021239326717</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1478,12 +1240,6 @@
       <c r="B40" t="n">
         <v>1085</v>
       </c>
-      <c r="C40" t="n">
-        <v>197.8268139584969</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1981.222432550885</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1492,12 +1248,6 @@
       <c r="B41" t="n">
         <v>1098</v>
       </c>
-      <c r="C41" t="n">
-        <v>224.5935073215157</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1967.351482699546</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1506,12 +1256,6 @@
       <c r="B42" t="n">
         <v>1111</v>
       </c>
-      <c r="C42" t="n">
-        <v>214.9211588938277</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1994.298043053034</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1520,12 +1264,6 @@
       <c r="B43" t="n">
         <v>1124</v>
       </c>
-      <c r="C43" t="n">
-        <v>254.5513916249247</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2022.249545332515</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1534,12 +1272,6 @@
       <c r="B44" t="n">
         <v>1137</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.1089963303712</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2008.717029683696</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1548,12 +1280,6 @@
       <c r="B45" t="n">
         <v>1150</v>
       </c>
-      <c r="C45" t="n">
-        <v>263.6489984481734</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2037.957188555484</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1562,12 +1288,6 @@
       <c r="B46" t="n">
         <v>1164</v>
       </c>
-      <c r="C46" t="n">
-        <v>295.1424553250141</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2053.397762616099</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1576,12 +1296,6 @@
       <c r="B47" t="n">
         <v>1177</v>
       </c>
-      <c r="C47" t="n">
-        <v>314.3700880665366</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2074.738923087642</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1589,12 +1303,6 @@
       </c>
       <c r="B48" t="n">
         <v>1190</v>
-      </c>
-      <c r="C48" t="n">
-        <v>295.9272160100623</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2072.927218528439</v>
       </c>
     </row>
   </sheetData>
